--- a/coins.xlsx
+++ b/coins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolka\OneDrive\Рабочий стол\coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C5C839-917D-43DA-86C1-C2367F238C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A7575A-A648-4982-A2FF-70BB9E531F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="3684" windowWidth="11880" windowHeight="9996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Название</t>
   </si>
@@ -67,13 +67,67 @@
   </si>
   <si>
     <t>5111-0521</t>
+  </si>
+  <si>
+    <t>4 руб.</t>
+  </si>
+  <si>
+    <t>5 руб.</t>
+  </si>
+  <si>
+    <t>6 руб.</t>
+  </si>
+  <si>
+    <t>7 руб.</t>
+  </si>
+  <si>
+    <t>8 руб.</t>
+  </si>
+  <si>
+    <t>Серебро / 31,11</t>
+  </si>
+  <si>
+    <t>Серебро / 31,12</t>
+  </si>
+  <si>
+    <t>Серебро / 31,13</t>
+  </si>
+  <si>
+    <t>Серебро / 31,14</t>
+  </si>
+  <si>
+    <t>Серебро / 31,15</t>
+  </si>
+  <si>
+    <t>5111-0522</t>
+  </si>
+  <si>
+    <t>5111-0523</t>
+  </si>
+  <si>
+    <t>5111-0524</t>
+  </si>
+  <si>
+    <t>5111-0525</t>
+  </si>
+  <si>
+    <t>еще одна монета</t>
+  </si>
+  <si>
+    <t>новая монета</t>
+  </si>
+  <si>
+    <t>еще другая монета</t>
+  </si>
+  <si>
+    <t>ляляляля</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +141,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,10 +520,10 @@
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>8500</v>
@@ -472,7 +532,100 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>8500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>8500</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>8500</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>8500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/coins.xlsx
+++ b/coins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolka\OneDrive\Рабочий стол\coins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A7575A-A648-4982-A2FF-70BB9E531F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85E2AF7-6423-49CC-B264-A332E1A998B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Название</t>
   </si>
@@ -63,71 +63,71 @@
     <t>5111-0520r.png</t>
   </si>
   <si>
-    <t>Другая Монета</t>
-  </si>
-  <si>
     <t>5111-0521</t>
   </si>
   <si>
-    <t>4 руб.</t>
-  </si>
-  <si>
-    <t>5 руб.</t>
-  </si>
-  <si>
-    <t>6 руб.</t>
-  </si>
-  <si>
-    <t>7 руб.</t>
-  </si>
-  <si>
-    <t>8 руб.</t>
-  </si>
-  <si>
-    <t>Серебро / 31,11</t>
-  </si>
-  <si>
-    <t>Серебро / 31,12</t>
-  </si>
-  <si>
-    <t>Серебро / 31,13</t>
-  </si>
-  <si>
-    <t>Серебро / 31,14</t>
-  </si>
-  <si>
-    <t>Серебро / 31,15</t>
-  </si>
-  <si>
-    <t>5111-0522</t>
-  </si>
-  <si>
-    <t>5111-0523</t>
-  </si>
-  <si>
-    <t>5111-0524</t>
-  </si>
-  <si>
-    <t>5111-0525</t>
-  </si>
-  <si>
-    <t>еще одна монета</t>
-  </si>
-  <si>
-    <t>новая монета</t>
-  </si>
-  <si>
-    <t>еще другая монета</t>
-  </si>
-  <si>
-    <t>ляляляля</t>
+    <t>Первый русский профессиональный театр</t>
+  </si>
+  <si>
+    <t>5111-0521r.png</t>
+  </si>
+  <si>
+    <t>Георгий Победоносец</t>
+  </si>
+  <si>
+    <t>5216-0060</t>
+  </si>
+  <si>
+    <t>50 руб.</t>
+  </si>
+  <si>
+    <t>Золото / 7,78</t>
+  </si>
+  <si>
+    <t>5216-0060-25r.png</t>
+  </si>
+  <si>
+    <t>100-летие Международного детского центра «Артек»</t>
+  </si>
+  <si>
+    <t>5111-0518</t>
+  </si>
+  <si>
+    <t>5111-0518r.png</t>
+  </si>
+  <si>
+    <t>Юбилей Победы советского народа в Великой Отечественной войне 1941–1945 гг.</t>
+  </si>
+  <si>
+    <t>5111-0516</t>
+  </si>
+  <si>
+    <t>5111-0516r.png</t>
+  </si>
+  <si>
+    <t>5111-0178</t>
+  </si>
+  <si>
+    <t>5117-0069r.png</t>
+  </si>
+  <si>
+    <t>5117-0069</t>
+  </si>
+  <si>
+    <t>100 руб.</t>
+  </si>
+  <si>
+    <t>Серебро / 1000,00</t>
+  </si>
+  <si>
+    <t>5111-0178-25r.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +147,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111214"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,9 +176,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,65 +496,65 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>8500</v>
+        <v>25000</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>8500</v>
@@ -557,71 +565,94 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>8500</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>6000</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="F6">
-        <v>8500</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>10000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>7000</v>
+      </c>
+      <c r="G8" t="s">
         <v>27</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>8500</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
